--- a/Hard/硬件方案系统耗时评估.xlsx
+++ b/Hard/硬件方案系统耗时评估.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="24180" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
   <si>
     <t>模块</t>
   </si>
@@ -136,6 +136,50 @@
   </si>
   <si>
     <t>16+？</t>
+  </si>
+  <si>
+    <t>权限-采购</t>
+  </si>
+  <si>
+    <t>硬件分类维护</t>
+  </si>
+  <si>
+    <t>硬件配置-对应硬件小类</t>
+  </si>
+  <si>
+    <t>添加字段：【节能】【环保】是两个不同的内容，应该分开。图文4个字段，图片上传
+添加字段：是否停产后增加【供货情况】内容且显示在查询界面中，下拉选项：月度可供、季度可供、年度可供
+添加字段：质保期限项后增加【综合】，下拉选项：优、良、中。内容不要显示到查询界面</t>
+  </si>
+  <si>
+    <t>分类删除功能</t>
+  </si>
+  <si>
+    <t>(硬件详情不随配置变动而变动，保留原配置名称)，检索重复</t>
+  </si>
+  <si>
+    <t>【其他端口】该项目，支持选项多选</t>
+  </si>
+  <si>
+    <t>硬件配置（除维护列表）</t>
+  </si>
+  <si>
+    <t>鼠标移入展示配置详情，详情布局调整</t>
+  </si>
+  <si>
+    <t>说明提示</t>
+  </si>
+  <si>
+    <t>硬件信息附件上传</t>
+  </si>
+  <si>
+    <t>硬件品牌同步NC现有字典库</t>
+  </si>
+  <si>
+    <t>硬件信息查询</t>
+  </si>
+  <si>
+    <t>实时动态查询</t>
   </si>
 </sst>
 </file>
@@ -143,11 +187,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -201,21 +245,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,11 +297,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -246,7 +322,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,11 +342,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -276,66 +374,12 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -370,19 +414,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,163 +582,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,6 +660,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -627,30 +697,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,11 +718,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,26 +743,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -721,10 +765,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -733,10 +777,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -745,126 +789,147 @@
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1324,17 +1389,17 @@
   <sheetPr/>
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="29" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="21.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.625" style="8" customWidth="1"/>
     <col min="2" max="2" width="14.25" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="5" max="5" width="54.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="54.25" style="9" customWidth="1"/>
     <col min="6" max="6" width="12.25" customWidth="1"/>
     <col min="7" max="7" width="12.75" customWidth="1"/>
     <col min="8" max="8" width="32.875" customWidth="1"/>
@@ -1344,460 +1409,460 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:11">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:11">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9" t="s">
+      <c r="D2" s="15"/>
+      <c r="E2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="17">
         <v>0.5</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="18">
         <v>1</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="18">
         <v>3</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="18">
         <v>2</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="8"/>
+      <c r="K2" s="15"/>
     </row>
     <row r="3" customHeight="1" spans="1:11">
-      <c r="A3" s="12"/>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="19"/>
+      <c r="B3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="17">
         <v>0.5</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="8"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="15"/>
     </row>
     <row r="4" customHeight="1" spans="1:11">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="15"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="22"/>
     </row>
     <row r="5" customHeight="1" spans="1:11">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20" t="s">
+      <c r="D5" s="26"/>
+      <c r="E5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="28">
         <v>0.5</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="19"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="26"/>
     </row>
     <row r="6" customHeight="1" spans="1:11">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19" t="s">
+      <c r="A6" s="24"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="20" t="s">
+      <c r="D6" s="26"/>
+      <c r="E6" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="19"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="26"/>
     </row>
     <row r="7" customHeight="1" spans="1:11">
-      <c r="A7" s="23"/>
-      <c r="B7" s="18" t="s">
+      <c r="A7" s="30"/>
+      <c r="B7" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20" t="s">
+      <c r="D7" s="26"/>
+      <c r="E7" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="28">
         <v>0.5</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="19"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="26"/>
     </row>
     <row r="8" customHeight="1" spans="1:11">
-      <c r="A8" s="23"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19" t="s">
+      <c r="A8" s="30"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20" t="s">
+      <c r="D8" s="26"/>
+      <c r="E8" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="24"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="19"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="26"/>
     </row>
     <row r="9" customHeight="1" spans="1:11">
-      <c r="A9" s="23"/>
-      <c r="B9" s="18" t="s">
+      <c r="A9" s="30"/>
+      <c r="B9" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="20" t="s">
+      <c r="D9" s="26"/>
+      <c r="E9" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="19"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="26"/>
     </row>
     <row r="10" customHeight="1" spans="1:11">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="15"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="22"/>
     </row>
     <row r="11" customHeight="1" spans="1:11">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="28" t="s">
+      <c r="D11" s="34"/>
+      <c r="E11" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="36">
         <v>0.5</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="36">
         <v>2</v>
       </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="27"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="34"/>
     </row>
     <row r="12" customHeight="1" spans="1:11">
-      <c r="A12" s="30"/>
-      <c r="B12" s="27" t="s">
+      <c r="A12" s="37"/>
+      <c r="B12" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="28" t="s">
+      <c r="D12" s="34"/>
+      <c r="E12" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="27"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="34"/>
     </row>
     <row r="13" customHeight="1" spans="1:11">
-      <c r="A13" s="30"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27" t="s">
+      <c r="A13" s="37"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="28" t="s">
+      <c r="D13" s="33"/>
+      <c r="E13" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="29">
+      <c r="F13" s="36">
         <v>2</v>
       </c>
-      <c r="G13" s="32"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="27"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="34"/>
     </row>
     <row r="14" customHeight="1" spans="1:11">
-      <c r="A14" s="30"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27" t="s">
+      <c r="A14" s="37"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="27"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="34"/>
     </row>
     <row r="15" customHeight="1" spans="1:11">
-      <c r="A15" s="30"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27" t="s">
+      <c r="A15" s="37"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="31"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="27"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="34"/>
     </row>
     <row r="16" customHeight="1" spans="1:11">
-      <c r="A16" s="30"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27" t="s">
+      <c r="A16" s="37"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="28" t="s">
+      <c r="D16" s="34"/>
+      <c r="E16" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F16" s="33">
         <v>0.5</v>
       </c>
-      <c r="G16" s="32"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="27"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="34"/>
     </row>
     <row r="17" customHeight="1" spans="1:11">
-      <c r="A17" s="30"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27" t="s">
+      <c r="A17" s="37"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="28" t="s">
+      <c r="D17" s="34"/>
+      <c r="E17" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="33">
         <v>1</v>
       </c>
-      <c r="G17" s="32"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="27"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="34"/>
     </row>
     <row r="18" customHeight="1" spans="1:11">
-      <c r="A18" s="30"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27" t="s">
+      <c r="A18" s="37"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="28" t="s">
+      <c r="D18" s="34"/>
+      <c r="E18" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F18" s="33">
         <v>2</v>
       </c>
-      <c r="G18" s="31"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="27"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="34"/>
     </row>
     <row r="19" customHeight="1" spans="1:11">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="33">
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="40">
         <v>8</v>
       </c>
-      <c r="G19" s="33">
+      <c r="G19" s="40">
         <v>3</v>
       </c>
-      <c r="H19" s="33">
+      <c r="H19" s="40">
         <v>3</v>
       </c>
-      <c r="I19" s="33">
+      <c r="I19" s="40">
         <v>2</v>
       </c>
-      <c r="J19" s="33" t="s">
+      <c r="J19" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="K19" s="33" t="s">
+      <c r="K19" s="40" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:11">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
     </row>
     <row r="21" customHeight="1" spans="1:11">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
     </row>
     <row r="22" customHeight="1" spans="1:11">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
     </row>
     <row r="23" customHeight="1" spans="1:11">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
     </row>
     <row r="24" customHeight="1" spans="1:11">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1820,14 +1885,210 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="E3:I34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="7" max="7" width="34" customWidth="1"/>
+    <col min="8" max="8" width="86.375" customWidth="1"/>
+    <col min="9" max="20" width="34" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" ht="111" customHeight="1"/>
+    <row r="4" ht="36" customHeight="1" spans="5:9">
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" ht="36" customHeight="1" spans="5:9">
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" ht="109" customHeight="1" spans="5:9">
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2">
+        <v>6</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" ht="36" customHeight="1" spans="5:9">
+      <c r="E7" s="1">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" ht="36" customHeight="1" spans="5:9">
+      <c r="E8" s="1">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" ht="36" customHeight="1" spans="5:8">
+      <c r="E9" s="4">
+        <v>6</v>
+      </c>
+      <c r="F9" s="5">
+        <v>5</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" ht="36" customHeight="1" spans="5:8">
+      <c r="E10" s="4">
+        <v>7</v>
+      </c>
+      <c r="F10" s="5">
+        <v>4</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" ht="36" customHeight="1" spans="5:8">
+      <c r="E11" s="4">
+        <v>7</v>
+      </c>
+      <c r="F11" s="5">
+        <v>7</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" ht="36" customHeight="1" spans="5:8">
+      <c r="E12" s="4">
+        <v>7</v>
+      </c>
+      <c r="F12" s="5">
+        <v>8</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" ht="36" customHeight="1" spans="5:8">
+      <c r="E13" s="4">
+        <v>7</v>
+      </c>
+      <c r="F13" s="5">
+        <v>9</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" ht="119" customHeight="1" spans="6:6">
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" ht="36" customHeight="1" spans="6:6">
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" ht="36" customHeight="1" spans="6:6">
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" ht="36" customHeight="1" spans="6:6">
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" ht="36" customHeight="1" spans="6:6">
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" ht="36" customHeight="1" spans="6:6">
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" ht="36" customHeight="1" spans="6:6">
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" ht="36" customHeight="1" spans="6:6">
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" ht="36" customHeight="1" spans="6:6">
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" ht="36" customHeight="1" spans="6:6">
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" ht="36" customHeight="1" spans="6:6">
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" ht="36" customHeight="1"/>
+    <row r="26" ht="36" customHeight="1"/>
+    <row r="27" ht="36" customHeight="1"/>
+    <row r="28" ht="36" customHeight="1"/>
+    <row r="29" ht="36" customHeight="1"/>
+    <row r="30" ht="36" customHeight="1"/>
+    <row r="31" ht="36" customHeight="1"/>
+    <row r="32" ht="36" customHeight="1"/>
+    <row r="33" ht="36" customHeight="1"/>
+    <row r="34" ht="36" customHeight="1"/>
+  </sheetData>
+  <sortState ref="E1:H31">
+    <sortCondition ref="E1"/>
+  </sortState>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
